--- a/rails_post_tool/bin/data/SERVER_LIST.xlsx
+++ b/rails_post_tool/bin/data/SERVER_LIST.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Sunbee_working\web\rails_post_tool\bin\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\refs\rails_game_web\rails_post_tool\bin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>string</t>
   </si>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LOCAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,46 +88,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CENT_OS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://lv999.net:3000/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEXTMV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:3000/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://211.253.11.167:3100/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://211.253.27.26:50080/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIVE-UTIL-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://211.253.27.226:50080/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIVE-GAME-1</t>
+    <t>ELKY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://elky.ddns.net:3000/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -604,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -624,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -644,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -655,109 +623,25 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>

--- a/rails_post_tool/bin/data/SERVER_LIST.xlsx
+++ b/rails_post_tool/bin/data/SERVER_LIST.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>string</t>
   </si>
@@ -93,6 +93,14 @@
   </si>
   <si>
     <t>http://elky.ddns.net:3000/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCALHOST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:3000/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +330,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,7 +365,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -622,7 +630,7 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -632,16 +640,33 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
